--- a/similarities/split_global/harmonic_similarity_timestamps_351.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_351.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,722 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['C:maj', 'G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
+          <t>('0:01:13.320000', '0:01:26.060000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:01.540000', '0:00:06.880000')]</t>
+          <t>('0:01:03.380000', '0:01:05.720000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=41.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=73.32</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=1.54']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=63.38</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>isophonics_223</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['Bb:min', 'Eb:7', 'Ab'], ['Ab', 'Eb:7', 'Ab'], ['Eb:7', 'Ab', 'F:min']]</t>
+          <t>['C:maj', 'G/3', 'C:maj', 'G/3']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:min/C', 'D:7', 'G:maj'], ['G:maj', 'D:7/C', 'G:maj/B'], ['D:7', 'G:maj', 'E:min']]</t>
+          <t>['A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:03.650000', '0:00:06.290000'), ('0:00:25.220000', '0:00:27.170000'), ('0:00:45.320000', '0:00:48.590000')]</t>
+          <t>('0:02:37.019000', '0:02:40.938000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:06.480000', '0:00:13.640000'), ('0:01:08.820000', '0:01:17.920000'), ('0:00:07.460000', '0:00:15.880000')]</t>
+          <t>('0:00:00.440395', '0:00:09.607823')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=3.65', 'https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22', 'https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=45.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=157.019</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=6.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=68.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=7.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-223#t=0.440395</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:min', 'F#/A#', 'F:min/C'], ['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>['D:dim7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:min', 'G#:maj/C', 'G:min'], ['A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>['G#:dim7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:03:02.640000', '0:03:04.840000'), ('0:00:24.980000', '0:00:31.820000')]</t>
+          <t>('0:01:02.360000', '0:01:08.270000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:42.580000', '0:00:45.200000'), ('0:01:40.380000', '0:01:53.760000')]</t>
+          <t>('0:01:06.200000', '0:01:10.020000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=182.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=24.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=62.36</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=42.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=100.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=66.2</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>isophonics_15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D']]</t>
+          <t>['F', 'C', 'G', 'F']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C', 'G/3', 'C']]</t>
+          <t>['C:maj', 'G:maj', 'D:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:06.536000', '0:00:11.853000')]</t>
+          <t>('0:01:15.880793', '0:01:38.601519')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:41.655000', '0:00:46.220000')]</t>
+          <t>('0:00:31.672000', '0:00:37.551000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=6.536']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=75.880793</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=41.655']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=31.672</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_44</t>
+          <t>jaah_15</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Db:maj6', 'Ab:7', 'Db']]</t>
+          <t>['D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Bb:maj6', 'F:7', 'Bb']]</t>
+          <t>['F#:7/A#', 'B:7/A', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:45.740000', '0:00:49.500000')]</t>
+          <t>('0:00:06.610000', '0:00:10.460000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:20.690000', '0:00:22.320000')]</t>
+          <t>('0:00:55.620000', '0:01:03.080000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-44#t=45.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=6.61</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=20.69']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=55.62</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>jaah_88</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>['C:7', 'F:7', 'Bb:7']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['F:7', 'Bb:7', 'Eb:7']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:02:14.220000', '0:02:19.560000')]</t>
+          <t>('0:00:14.980000', '0:00:22.790000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:03.820000', '0:00:08.620000')]</t>
+          <t>('0:00:16.880000', '0:00:20.150000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=134.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-88#t=14.98</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=3.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=16.88</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_62</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>isophonics_167</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>['G:maj', 'C:maj', 'G/3']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:maj', 'D:maj', 'G:maj']]</t>
+          <t>['G/5', 'C/9', 'G']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:21.577709', '0:00:29.878843')]</t>
+          <t>('0:00:05.146000', '0:00:09.474000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:12.446000', '0:00:16.277000')]</t>
+          <t>('0:00:00.727609', '0:00:08.204625')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-62#t=21.577709']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=12.446']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=0.727609</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:15.260000', '0:00:45.460000')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:08.980000', '0:01:27.200000')]</t>
+          <t>('0:01:02.200000', '0:01:04.400000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=15.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=68.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>isophonics_79</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['E', 'E:7', 'F']]</t>
+          <t>['C', 'G/3', 'C']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:maj', 'D:7/C', 'D#:maj/A#']]</t>
+          <t>['E', 'B', 'E']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:53.673000', '0:01:00.522000')]</t>
+          <t>('0:00:41.655000', '0:00:46.220000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:54.400000', '0:01:00.660000')]</t>
+          <t>('0:00:04.103323', '0:00:13.890534')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-225#t=53.673']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=41.655</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=54.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=4.103323</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_213</t>
+          <t>isophonics_248</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>isophonics_62</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'E:7', 'A', 'E']]</t>
+          <t>['E/5', 'F#/4', 'B']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D']]</t>
+          <t>['A', 'B', 'E']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:14.752537', '0:00:30.298296')]</t>
+          <t>('0:02:06.195000', '0:02:11.396000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:06.260000', '0:01:13.300000')]</t>
+          <t>('0:00:21.577709', '0:00:29.878843')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-213#t=14.752537']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=126.195</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=66.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-62#t=21.577709</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
+          <t>jaah_56</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>jaah_65</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'F#/4', 'B', 'E/5']]</t>
+          <t>['F:7', 'Bb:min7', 'Eb:7', 'Ab:maj6']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E', 'A', 'D']]</t>
+          <t>['F:7', 'Bb:min7', 'Eb:7', 'Ab:maj6']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:02:03.652000', '0:02:12.656000')]</t>
+          <t>('0:00:15.930000', '0:00:21.360000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:25.477221', '0:00:42.776087')]</t>
+          <t>('0:00:07.420000', '0:00:09.880000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=123.652']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=15.93</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=25.477221']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-65#t=7.42</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:16.200000', '0:00:18.460000')]</t>
+          <t>('0:01:04.080000', '0:01:13.880000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:07.900000', '0:00:16.080000')]</t>
+          <t>('0:00:25.220000', '0:00:27.170000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=16.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=7.9']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>schubert-winterreise_149</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>isophonics_191</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min'], ['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min'], ['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['B', 'Gb', 'B', 'Gb']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:01.260000', '0:00:07.700000'), ('0:00:00.660000', '0:00:06.020000')]</t>
+          <t>('0:00:30.020000', '0:00:32.840000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:08.240000', '0:00:18.540000'), ('0:00:06.880000', '0:00:15.960000')]</t>
+          <t>('0:00:15.552131', '0:00:23.667505')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=1.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=0.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=30.02</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=6.88']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-191#t=15.552131</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>isophonics_294</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['G', 'C', 'G/3']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:41.700000', '0:00:57.940000')]</t>
+          <t>('0:00:22.020589', '0:00:24.598004')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:14.660000')]</t>
+          <t>('0:02:07.600000', '0:02:12.400000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=41.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>jaah_6</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:min']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['G:7', 'C:maj', 'C:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:58.320000', '0:00:59.680000'), ('0:00:58.880000', '0:01:01.680000')]</t>
+          <t>('0:00:07.590000', '0:00:14.680000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:00.580000', '0:00:08.960000'), ('0:00:28.300000', '0:00:38.340000')]</t>
+          <t>('0:00:14.300000', '0:00:15.210000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=28.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
